--- a/i_test/test_D3_bleeding_events/bleeding_narrow.xlsx
+++ b/i_test/test_D3_bleeding_events/bleeding_narrow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>hospital_main_diagnosis</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>esito</t>
+  </si>
+  <si>
+    <t>hospital_sec_diagnosis</t>
+  </si>
+  <si>
+    <t>pres</t>
   </si>
 </sst>
 </file>
@@ -372,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +411,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -413,8 +431,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -426,6 +447,40 @@
       </c>
       <c r="F3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/i_test/test_D3_bleeding_events/bleeding_narrow.xlsx
+++ b/i_test/test_D3_bleeding_events/bleeding_narrow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>pres</t>
+  </si>
+  <si>
+    <t>P04</t>
   </si>
 </sst>
 </file>
@@ -82,15 +85,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,12 +119,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -384,104 +423,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
         <v>250</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
         <v>220</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>249</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>251</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>290</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
